--- a/Flags_WS.xlsx
+++ b/Flags_WS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>WS</t>
   </si>
@@ -43,25 +43,28 @@
     <t>Não disponível</t>
   </si>
   <si>
-    <t>28.0</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>Não testado</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>Anômalo</t>
   </si>
   <si>
+    <t>1308.0</t>
+  </si>
+  <si>
     <t>Suspeito</t>
   </si>
   <si>
     <t>Bom</t>
   </si>
   <si>
-    <t>43172.0</t>
+    <t>43200.0</t>
+  </si>
+  <si>
+    <t>41892.0</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -427,13 +430,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -447,13 +450,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -467,16 +470,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -487,16 +490,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -507,16 +510,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -527,16 +530,16 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -547,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
